--- a/experiments_ml.xlsx
+++ b/experiments_ml.xlsx
@@ -29,21 +29,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>数据集</t>
-  </si>
-  <si>
-    <t>方法</t>
-  </si>
-  <si>
-    <t>准确率</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>accuracy</t>
   </si>
   <si>
     <t>IFo</t>
   </si>
   <si>
-    <t xml:space="preserve">abft_ml 100W步 </t>
+    <t>#IDIs</t>
+  </si>
+  <si>
+    <t>TOT</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>census</t>
@@ -1001,12 +1007,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,14 +1027,20 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>83.19</v>
@@ -1048,10 +1060,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>68.42</v>
@@ -1071,10 +1083,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>78</v>
@@ -1094,10 +1106,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>90.31</v>
@@ -1117,10 +1129,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>85.53</v>
